--- a/myUpstream/upInfo/death.File.Vars.xlsx
+++ b/myUpstream/upInfo/death.File.Vars.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>F12</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>GEOID</t>
+  </si>
+  <si>
+    <t>y2005onward</t>
+  </si>
+  <si>
+    <t>y2000to2004</t>
   </si>
 </sst>
 </file>
@@ -706,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -717,12 +723,14 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -730,13 +738,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
